--- a/medicine/Psychotrope/Deutsches_Brauereimuseum/Deutsches_Brauereimuseum.xlsx
+++ b/medicine/Psychotrope/Deutsches_Brauereimuseum/Deutsches_Brauereimuseum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Deutsche Brauereimuseum ("Musée  allemande de la brasserie") est un ancien musée fondé en 1952 par une impulsion de la Hofbräuhaus. Le musée est situé à la St.-Jakobs-Platz à Munich, en Allemagne.
 Il est le musée le plus connu de sa sorte en Allemagne. L'accent de l'exposition est l'évolution historique et technique du brassage. On y trouve des verres à bière et des chopes. La pièce d'exposition la plus vieille a 6 000 ans. 
-À côté il y a aussi des modèles de brasseries et une microbrasserie complète[1],[2].
+À côté il y a aussi des modèles de brasseries et une microbrasserie complète,.
 La collection du musée est dissoute, et une partie de ses objets est retournée aux propriétaires. L'autre est transferte au Bier- und Oktoberfestmuseum (Musée de la bière et de l'Oktoberfest) inauguré en 2005 en Sterneckerstrasse.
 </t>
         </is>
